--- a/election_votar_data/LOHAGARA/CHUNATI/152613/152613_com_1384_male_without_photo_78_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152613/152613_com_1384_male_without_photo_78_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="42.5" customWidth="1" min="4" max="4"/>
     <col width="42.5" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="41.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী/জন্ম তারিখ:১১/০১/১৯৯৫</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G55" s="3" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১০/০৮/১৯৯৫</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G59" s="3" t="inlineStr">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০৭/০৩/১৯৮৭</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G73" s="3" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="F126" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০১/১৯৭৬</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G126" s="3" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২১/১১/১৯৯২</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G163" s="3" t="inlineStr">
@@ -29547,7 +29547,7 @@
       </c>
       <c r="F693" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী/জন্ম তারিখ:১৫/০৮/১৯৮০</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G693" s="3" t="inlineStr">
@@ -31437,7 +31437,7 @@
       </c>
       <c r="F738" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০২/১০/১৯৮৭</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G738" s="3" t="inlineStr">
@@ -37317,7 +37317,7 @@
       </c>
       <c r="F878" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:০৮/০৩/১৯৯০</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G878" s="3" t="inlineStr">
@@ -37947,7 +37947,7 @@
       </c>
       <c r="F893" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০২/১৯৯৫</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G893" s="3" t="inlineStr">
@@ -38283,7 +38283,7 @@
       </c>
       <c r="F901" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০৩/১৯৯৩</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G901" s="3" t="inlineStr">
@@ -38325,7 +38325,7 @@
       </c>
       <c r="F902" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৬/১২/১৯৯৫</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G902" s="3" t="inlineStr">
@@ -40215,7 +40215,7 @@
       </c>
       <c r="F947" s="3" t="inlineStr">
         <is>
-          <t>দার্জি জন্ম তারিখ:১০/১২/১৯৮৩</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G947" s="3" t="inlineStr">
@@ -44121,7 +44121,7 @@
       </c>
       <c r="F1040" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী/জন্ম তারিখ:০১/০৫/১৯৮০</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G1040" s="3" t="inlineStr">
@@ -44415,7 +44415,7 @@
       </c>
       <c r="F1047" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:১৯/০৭/১৯৮৬</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G1047" s="3" t="inlineStr">
@@ -46473,7 +46473,7 @@
       </c>
       <c r="F1096" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৮/১১/১৯৯৪</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1096" s="3" t="inlineStr">
@@ -46683,7 +46683,7 @@
       </c>
       <c r="F1101" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০১/১৯৯৫</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1101" s="3" t="inlineStr">
@@ -48825,7 +48825,7 @@
       </c>
       <c r="F1152" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০৩/১৯৯২</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1152" s="3" t="inlineStr">
@@ -49791,7 +49791,7 @@
       </c>
       <c r="F1175" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:১৩/০২/১৯৯৪</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G1175" s="3" t="inlineStr">
@@ -50883,7 +50883,7 @@
       </c>
       <c r="F1201" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০১/১৯৯৫</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1201" s="3" t="inlineStr">
@@ -56721,7 +56721,7 @@
       </c>
       <c r="F1340" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:০৮/০৮/২০০৩</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G1340" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/CHUNATI/152613/152613_com_1384_male_without_photo_78_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152613/152613_com_1384_male_without_photo_78_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="42.5" customWidth="1" min="4" max="4"/>
     <col width="42.5" customWidth="1" min="5" max="5"/>
-    <col width="41.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>মিস্ত্রী/জন্ম তারিখ:১১/০১/১৯৯৫</t>
         </is>
       </c>
       <c r="G55" s="3" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১০/০৮/১৯৯৫</t>
         </is>
       </c>
       <c r="G59" s="3" t="inlineStr">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০৭/০৩/১৯৮৭</t>
         </is>
       </c>
       <c r="G73" s="3" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="F126" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০১/১৯৭৬</t>
         </is>
       </c>
       <c r="G126" s="3" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২১/১১/১৯৯২</t>
         </is>
       </c>
       <c r="G163" s="3" t="inlineStr">
@@ -29547,7 +29547,7 @@
       </c>
       <c r="F693" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>প্রবাসী/জন্ম তারিখ:১৫/০৮/১৯৮০</t>
         </is>
       </c>
       <c r="G693" s="3" t="inlineStr">
@@ -31437,7 +31437,7 @@
       </c>
       <c r="F738" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০২/১০/১৯৮৭</t>
         </is>
       </c>
       <c r="G738" s="3" t="inlineStr">
@@ -37317,7 +37317,7 @@
       </c>
       <c r="F878" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:০৮/০৩/১৯৯০</t>
         </is>
       </c>
       <c r="G878" s="3" t="inlineStr">
@@ -37947,7 +37947,7 @@
       </c>
       <c r="F893" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০২/১৯৯৫</t>
         </is>
       </c>
       <c r="G893" s="3" t="inlineStr">
@@ -38283,7 +38283,7 @@
       </c>
       <c r="F901" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০৩/১৯৯৩</t>
         </is>
       </c>
       <c r="G901" s="3" t="inlineStr">
@@ -38325,7 +38325,7 @@
       </c>
       <c r="F902" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৬/১২/১৯৯৫</t>
         </is>
       </c>
       <c r="G902" s="3" t="inlineStr">
@@ -40215,7 +40215,7 @@
       </c>
       <c r="F947" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জি জন্ম তারিখ:১০/১২/১৯৮৩</t>
         </is>
       </c>
       <c r="G947" s="3" t="inlineStr">
@@ -44121,7 +44121,7 @@
       </c>
       <c r="F1040" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>প্রবাসী/জন্ম তারিখ:০১/০৫/১৯৮০</t>
         </is>
       </c>
       <c r="G1040" s="3" t="inlineStr">
@@ -44415,7 +44415,7 @@
       </c>
       <c r="F1047" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:১৯/০৭/১৯৮৬</t>
         </is>
       </c>
       <c r="G1047" s="3" t="inlineStr">
@@ -46473,7 +46473,7 @@
       </c>
       <c r="F1096" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৮/১১/১৯৯৪</t>
         </is>
       </c>
       <c r="G1096" s="3" t="inlineStr">
@@ -46683,7 +46683,7 @@
       </c>
       <c r="F1101" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০১/১৯৯৫</t>
         </is>
       </c>
       <c r="G1101" s="3" t="inlineStr">
@@ -48825,7 +48825,7 @@
       </c>
       <c r="F1152" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০৩/১৯৯২</t>
         </is>
       </c>
       <c r="G1152" s="3" t="inlineStr">
@@ -49791,7 +49791,7 @@
       </c>
       <c r="F1175" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:১৩/০২/১৯৯৪</t>
         </is>
       </c>
       <c r="G1175" s="3" t="inlineStr">
@@ -50883,7 +50883,7 @@
       </c>
       <c r="F1201" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০১/১৯৯৫</t>
         </is>
       </c>
       <c r="G1201" s="3" t="inlineStr">
@@ -56721,7 +56721,7 @@
       </c>
       <c r="F1340" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:০৮/০৮/২০০৩</t>
         </is>
       </c>
       <c r="G1340" s="3" t="inlineStr">
